--- a/public/form/Nomor Rekening.xlsx
+++ b/public/form/Nomor Rekening.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\s2p-helper\s2p-helper\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/s2p-project/s2p-helper/public/form/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C00F6D-E541-D946-9D38-61AE81D7A77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14200" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +36,6 @@
     <t>Nomor Rekening</t>
   </si>
   <si>
-    <t>NIK</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -90,12 +88,15 @@
   </si>
   <si>
     <t>111-423-45654</t>
+  </si>
+  <si>
+    <t>NPK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,25 +442,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -471,137 +472,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>982374982374</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4">
         <v>6723942389</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>932402093</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>8792347234</v>
